--- a/data/trans_camb/P08_2_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P08_2_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-7.459604541936354</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-1.293087624969724</v>
+        <v>-1.293087624969719</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-8.006400080838006</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.19410982756325</v>
+        <v>-11.21983340998424</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.79359873882407</v>
+        <v>-11.2078368274493</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.367642460954347</v>
+        <v>-3.668367612347285</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.00524539565538</v>
+        <v>-11.26001270537744</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-11.50150615638527</v>
+        <v>-11.66561535852892</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.652217579025312</v>
+        <v>-5.472267038821842</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-10.91655828480237</v>
+        <v>-10.89398827258416</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-11.08738312051717</v>
+        <v>-11.23402417994466</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.710812369254882</v>
+        <v>-4.419357085440105</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.602319437524665</v>
+        <v>-2.933162099560078</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.814812522420957</v>
+        <v>-2.808604877217955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.433453252574624</v>
+        <v>7.340564243780996</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.993197248438224</v>
+        <v>-2.536590377951002</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-3.319604267717478</v>
+        <v>-3.011511139322868</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.469388261479246</v>
+        <v>3.502393150879395</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-5.208094733862708</v>
+        <v>-4.955965642372337</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-5.113558351959056</v>
+        <v>-5.371251460773409</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.943909301235437</v>
+        <v>2.735589621550643</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.2153050834932699</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.03732213115227039</v>
+        <v>-0.03732213115227023</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.26407079761896</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4230230127474764</v>
+        <v>-0.4239079829687622</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.412406328371641</v>
+        <v>-0.4134889980814113</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1360771505465392</v>
+        <v>-0.1404718638611857</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2977673266581982</v>
+        <v>-0.3048414326398939</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.313605321328653</v>
+        <v>-0.3190993268348366</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.153044921862888</v>
+        <v>-0.1440154464420631</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3407531489888082</v>
+        <v>-0.3408800618779756</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3417627674762392</v>
+        <v>-0.3509899467089262</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1172033227973178</v>
+        <v>-0.1379916682124566</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.119178717548239</v>
+        <v>-0.1359513005248555</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.138462915688549</v>
+        <v>-0.1275541512660734</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3561869390991388</v>
+        <v>0.3401337089606136</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.08949277723527198</v>
+        <v>-0.07893575299488757</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.102296108194899</v>
+        <v>-0.09568590679738873</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1073042417369194</v>
+        <v>0.1099997761714677</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1804108088009248</v>
+        <v>-0.1743686854088148</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.178564259841501</v>
+        <v>-0.1868212573774111</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1026427797796325</v>
+        <v>0.09551938662650029</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.503530730853807</v>
+        <v>-1.861067757308248</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.012858406278204</v>
+        <v>-3.376484037100091</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.06303846405577732</v>
+        <v>-0.1972216454427215</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.642787104177455</v>
+        <v>2.642757510830333</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.626494426539415</v>
+        <v>-2.799390280784612</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.706267752131813</v>
+        <v>1.4640650375584</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.05886217082797</v>
+        <v>1.822840288695997</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.588590809847414</v>
+        <v>-1.68526074651942</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.922160237123416</v>
+        <v>2.064800683508641</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.996346737000836</v>
+        <v>4.678199273733266</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.247643373429721</v>
+        <v>3.46237042521701</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.534387394086651</v>
+        <v>6.156802367748188</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.09813718991854</v>
+        <v>10.05012655537205</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.757749461978249</v>
+        <v>4.891676202003913</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.398029908878318</v>
+        <v>8.079928017947561</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.056933102415696</v>
+        <v>6.784135935362573</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.160978851598943</v>
+        <v>3.504041886972896</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.50464452108194</v>
+        <v>6.622366820424445</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09329634640359695</v>
+        <v>-0.1085255601155201</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1864569039515723</v>
+        <v>-0.208486178008832</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.006169180679472711</v>
+        <v>-0.01858690470640903</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1105042448425261</v>
+        <v>0.1182575126241816</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.111300822281631</v>
+        <v>-0.1234727658647095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07537611012641994</v>
+        <v>0.06178877427826304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1109377955080336</v>
+        <v>0.09490965060962088</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08478239091036463</v>
+        <v>-0.08970072869351271</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1030235743625844</v>
+        <v>0.1050040376431559</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.369898597178651</v>
+        <v>0.3430070450029447</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2353603342475031</v>
+        <v>0.2663734888672843</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4827673661329494</v>
+        <v>0.4847962539837345</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5230359798456108</v>
+        <v>0.5287548528568822</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2517047076767515</v>
+        <v>0.2527416458367228</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4404495842269256</v>
+        <v>0.4186356257970523</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4311589327211382</v>
+        <v>0.4097426394350911</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1863720888445465</v>
+        <v>0.209942887379882</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3924386800836138</v>
+        <v>0.3988288368367552</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>3.288435360518438</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.3871612353921666</v>
+        <v>0.3871612353921694</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.554958937188721</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7842282018027021</v>
+        <v>0.8877425032481887</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.308370098562602</v>
+        <v>-1.969406101690726</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.939951583946642</v>
+        <v>-1.975689619316188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.308020184965659</v>
+        <v>0.9094089094590607</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.034301329187564</v>
+        <v>-0.3375136250357086</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.710341934533061</v>
+        <v>-2.409484952697374</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.303643029277772</v>
+        <v>2.224581505923309</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.3335663036745483</v>
+        <v>-0.5774099006205307</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.245473901814984</v>
+        <v>-1.289315376647585</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.687940525079433</v>
+        <v>7.039309639563331</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.225955689783707</v>
+        <v>3.744225374292826</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.052023486342041</v>
+        <v>3.227319660913256</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.408003441443752</v>
+        <v>8.612830523086751</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.108635785143738</v>
+        <v>7.713515643603924</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.538664649940265</v>
+        <v>3.247112598024743</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.23446645262587</v>
+        <v>6.840070988287361</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.726542502725084</v>
+        <v>4.33088096252255</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.938746637926606</v>
+        <v>2.685503593453164</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.181688424239399</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02139093735261742</v>
+        <v>0.02139093735261757</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3200870757107252</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.05460058607427768</v>
+        <v>0.07556340582464503</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1903547935580053</v>
+        <v>-0.1675422153960074</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1637180580443971</v>
+        <v>-0.168578312945783</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.06411103154368426</v>
+        <v>0.04628861062956491</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.05011297272854703</v>
+        <v>-0.01683466246112798</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1374082297536563</v>
+        <v>-0.1193107905294664</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1534925477909289</v>
+        <v>0.1415474410635199</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.02168727199148301</v>
+        <v>-0.03814380512850996</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.07716346604754674</v>
+        <v>-0.08484943720574313</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6942729274724219</v>
+        <v>0.7354853522116943</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3285686553317061</v>
+        <v>0.3931431393430667</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3208085778147757</v>
+        <v>0.3297715361881627</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5157985206460438</v>
+        <v>0.521677016434307</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4289725779294178</v>
+        <v>0.464654367105387</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2204445228558123</v>
+        <v>0.2053840007778541</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5604694930925029</v>
+        <v>0.5162584098522967</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3565415504998817</v>
+        <v>0.32746056309405</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2257837793397993</v>
+        <v>0.2054441476506659</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>6.825352703422648</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.515669736855806</v>
+        <v>4.515669736855804</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>8.49946453341316</v>
@@ -1306,7 +1306,7 @@
         <v>4.804782331703934</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.469649787381623</v>
+        <v>4.469649787381617</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.893507086817806</v>
+        <v>2.67195281238675</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.753170718174206</v>
+        <v>2.923487450668106</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.305285563295777</v>
+        <v>1.374893160637552</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.480364696584728</v>
+        <v>3.573269324729286</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.7681628484925</v>
+        <v>-3.853643264879743</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.7613973005881207</v>
+        <v>-0.6092647252443758</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.67088544993581</v>
+        <v>4.647737793880179</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.239838158487351</v>
+        <v>1.264883402577389</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.000460510899994</v>
+        <v>1.755164204264895</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.49437991785958</v>
+        <v>10.48656694598049</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.7387880764486</v>
+        <v>10.95016203506386</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.496317058838661</v>
+        <v>7.188902679485031</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.80964204803439</v>
+        <v>13.7556738293902</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.583405859576224</v>
+        <v>6.722792175368745</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.738781149518548</v>
+        <v>7.751540047500173</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.93627979952551</v>
+        <v>10.91753671317591</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.722949413695318</v>
+        <v>7.833259225854126</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.646526146219502</v>
+        <v>6.771889213619323</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>1.044622366644477</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6911246660020485</v>
+        <v>0.6911246660020482</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.6877078154944553</v>
@@ -1411,7 +1411,7 @@
         <v>0.5306407554728279</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4936286757935271</v>
+        <v>0.4936286757935265</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3544917707629032</v>
+        <v>0.3061810122295054</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3215277081982263</v>
+        <v>0.3166726240362334</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1376387258606818</v>
+        <v>0.1438148829009889</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2039729757492272</v>
+        <v>0.2213899418356826</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2334559298719814</v>
+        <v>-0.2438920449849425</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.04524728457728631</v>
+        <v>-0.03902495701178763</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4326491775055675</v>
+        <v>0.4349867954058958</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1150909059681461</v>
+        <v>0.1140756721339113</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1861027913019818</v>
+        <v>0.1558878518966172</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.067961903843473</v>
+        <v>2.164595545835372</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.088932708319266</v>
+        <v>2.16331730139453</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.513656937273228</v>
+        <v>1.484119414401181</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.407909340052345</v>
+        <v>1.40344305370953</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6985018876900206</v>
+        <v>0.6904905534933971</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8273509791288393</v>
+        <v>0.8285922327271424</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.460915629173871</v>
+        <v>1.409348630747526</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.02016099303742</v>
+        <v>1.028163035376657</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8915151944263755</v>
+        <v>0.9067113343353198</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.3475728540809908</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.3671202264648871</v>
+        <v>-0.3671202264648843</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.164075773954779</v>
@@ -1520,7 +1520,7 @@
         <v>0.1761772516607085</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.4984454120118609</v>
+        <v>0.4984454120118581</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.1414373452036845</v>
+        <v>-0.1553173442757692</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.150558663395549</v>
+        <v>-1.200040943602984</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.3859318891506263</v>
+        <v>-0.4613151581980677</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3707787384525815</v>
+        <v>0.6136690586763414</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.436506649558482</v>
+        <v>-2.305585614808605</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.194209420439589</v>
+        <v>-2.092337358198819</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5486611367076473</v>
+        <v>0.6657551171573151</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.351851240533502</v>
+        <v>-1.195881757975154</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.868318330367121</v>
+        <v>-0.8891493300224043</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.347609454101951</v>
+        <v>3.449478083086936</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.236071715513303</v>
+        <v>2.241442121445914</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.905495916870413</v>
+        <v>2.843930768579404</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.61350810403436</v>
+        <v>4.693458354658214</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.738975692361446</v>
+        <v>1.83596640165039</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.36049923062045</v>
+        <v>1.534771303863892</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.518205655128193</v>
+        <v>3.487107770724259</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.555492551550996</v>
+        <v>1.457312275409065</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.699811716368607</v>
+        <v>1.672192155130207</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.01505773234484686</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.01590457379965499</v>
+        <v>-0.01590457379965487</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1170298554512567</v>
@@ -1625,7 +1625,7 @@
         <v>0.009527392036727837</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.02695515342861054</v>
+        <v>0.02695515342861039</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.00873608923438548</v>
+        <v>-0.009309661491826873</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08090850452568678</v>
+        <v>-0.08402087427591046</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02872912591216881</v>
+        <v>-0.03331576357645685</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.01733231953120383</v>
+        <v>0.0252391173875455</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1020140045796981</v>
+        <v>-0.09559606958060168</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.08915589757078385</v>
+        <v>-0.08673466759652869</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02976982121693876</v>
+        <v>0.0343094262404345</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.07046965413905036</v>
+        <v>-0.06300081309481392</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.04473216870825444</v>
+        <v>-0.04605952543987241</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.260832292080403</v>
+        <v>0.2679907981233047</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1685140121781946</v>
+        <v>0.1723157333250962</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.223525423601111</v>
+        <v>0.2171149859713423</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2146926067039728</v>
+        <v>0.2121487494740377</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07935083035979967</v>
+        <v>0.08364646097571105</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06248618006988028</v>
+        <v>0.07086490984906921</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1975506800703654</v>
+        <v>0.1952153724885315</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0864545463953508</v>
+        <v>0.08131191996803525</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.09569973725779256</v>
+        <v>0.09584871193132624</v>
       </c>
     </row>
     <row r="34">
